--- a/config/plotting_config_and_timeslices.xlsx
+++ b/config/plotting_config_and_timeslices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\finn_dev_branch\power-model\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000DC78-1EA1-49A4-9FB8-2A3930DED42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953BEFE-7293-4935-9E63-4B6AC348D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="630" windowWidth="25905" windowHeight="14655" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUEL" sheetId="1" r:id="rId1"/>
@@ -229,27 +229,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>1_x_coal_thermal_CO2</t>
-  </si>
-  <si>
-    <t>1_5_lignite_CO2</t>
-  </si>
-  <si>
-    <t>2_coal_products_CO2</t>
-  </si>
-  <si>
-    <t>7_7_gas_diesel_oil_CO2</t>
-  </si>
-  <si>
-    <t>7_8_fuel_oil_CO2</t>
-  </si>
-  <si>
-    <t>8_1_natural_gas_CO2</t>
-  </si>
-  <si>
-    <t>8_1_natural_gas_CCS_CO2</t>
-  </si>
-  <si>
     <t>15_solid_biomass_CO2</t>
   </si>
   <si>
@@ -374,6 +353,27 @@
   </si>
   <si>
     <t>SH2024</t>
+  </si>
+  <si>
+    <t>01_x_thermal_coal_CO2</t>
+  </si>
+  <si>
+    <t>01_05_lignite_CO2</t>
+  </si>
+  <si>
+    <t>02_coal_products_CO2</t>
+  </si>
+  <si>
+    <t>07_07_gas_diesel_oil_CO2</t>
+  </si>
+  <si>
+    <t>07_08_fuel_oil_CO2</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas_CO2</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas_CCS_CO2</t>
   </si>
 </sst>
 </file>
@@ -697,12 +697,12 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -710,7 +710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -750,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -831,16 +831,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC71A03-AE6D-4049-B24E-310B3F034CAE}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -848,7 +848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -912,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -920,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -936,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -944,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1045,12 +1045,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1170,12 +1170,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1191,22 +1191,22 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>2.8767122999999999E-2</v>
@@ -1215,9 +1215,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>2.8767122999999999E-2</v>
@@ -1226,9 +1226,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>2.8767122999999999E-2</v>
@@ -1237,9 +1237,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>2.8767122999999999E-2</v>
@@ -1248,9 +1248,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>2.8767122999999999E-2</v>
@@ -1259,9 +1259,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>2.8767122999999999E-2</v>
@@ -1270,9 +1270,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>1.2328766999999999E-2</v>
@@ -1281,9 +1281,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>1.2328766999999999E-2</v>
@@ -1292,9 +1292,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>1.2328766999999999E-2</v>
@@ -1303,9 +1303,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>1.2328766999999999E-2</v>
@@ -1314,9 +1314,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>1.2328766999999999E-2</v>
@@ -1325,9 +1325,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>1.2328766999999999E-2</v>
@@ -1336,9 +1336,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>5.9817351999999997E-2</v>
@@ -1347,9 +1347,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>5.9817351999999997E-2</v>
@@ -1358,9 +1358,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>5.9817351999999997E-2</v>
@@ -1369,9 +1369,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>5.9817351999999997E-2</v>
@@ -1380,9 +1380,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>5.9817351999999997E-2</v>
@@ -1391,9 +1391,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>5.9817351999999997E-2</v>
@@ -1402,9 +1402,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>2.3744292E-2</v>
@@ -1413,9 +1413,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>2.3744292E-2</v>
@@ -1424,9 +1424,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>2.3744292E-2</v>
@@ -1435,9 +1435,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>2.3744292E-2</v>
@@ -1446,9 +1446,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>2.3744292E-2</v>
@@ -1457,9 +1457,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>2.3744292E-2</v>
@@ -1468,9 +1468,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>3.0136986000000001E-2</v>
@@ -1479,9 +1479,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <v>3.0136986000000001E-2</v>
@@ -1490,9 +1490,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>3.0136986000000001E-2</v>
@@ -1501,9 +1501,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B29">
         <v>3.0136986000000001E-2</v>
@@ -1512,9 +1512,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>3.0136986000000001E-2</v>
@@ -1523,9 +1523,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B31">
         <v>3.0136986000000001E-2</v>
@@ -1534,9 +1534,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B32">
         <v>1.1872146E-2</v>
@@ -1545,9 +1545,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>1.1872146E-2</v>
@@ -1556,9 +1556,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>1.1872146E-2</v>
@@ -1567,9 +1567,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>1.1872146E-2</v>
@@ -1578,9 +1578,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>1.1872146E-2</v>
@@ -1589,9 +1589,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>1.1872146E-2</v>
@@ -1609,16 +1609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873EB18-23BE-4A8F-8810-A9B73B0B6195}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1626,73 +1626,73 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
